--- a/assets/docs/Exe_9.3B.xlsx
+++ b/assets/docs/Exe_9.3B.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,8 +15,11 @@
   <sheets>
     <sheet name="Diets" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -44,7 +47,10 @@
     <t>A</t>
   </si>
   <si>
-    <t>B</t>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Relative</t>
   </si>
   <si>
     <t>Diet A</t>
@@ -53,13 +59,22 @@
     <t>n</t>
   </si>
   <si>
+    <t>UCB</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
     <t>Mean</t>
   </si>
   <si>
     <t>SD</t>
   </si>
   <si>
-    <t>Range</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Min</t>
@@ -68,28 +83,16 @@
     <t>Max</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>UCB</t>
-  </si>
-  <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>Mark</t>
-  </si>
-  <si>
-    <t>Relative</t>
-  </si>
-  <si>
-    <t>Frequency</t>
+    <t>Range</t>
   </si>
   <si>
     <t>Total</t>
   </si>
   <si>
     <t>Diet B</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -199,7 +202,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -419,7 +422,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1764,13 +1767,13 @@
       <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.6"/>
   <cols>
-    <col min="9" max="9" width="10.7265625" customWidth="1"/>
-    <col min="12" max="12" width="10.7265625" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13">
+    <row r="1" spans="1:12" ht="12.95">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1778,7 +1781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="13">
+    <row r="2" spans="1:12" ht="12.95">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1786,13 +1789,13 @@
         <v>3.7090000000000001</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="12.95">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1800,29 +1803,29 @@
         <v>7.0869999999999997</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="5">
         <f>COUNT(B2:B51)</f>
         <v>50</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="12.95">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1830,7 +1833,7 @@
         <v>6.7539999999999996</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F4" s="6">
         <f>AVERAGE(B2:B51)</f>
@@ -1851,7 +1854,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="13">
+    <row r="5" spans="1:12" ht="12.95">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1859,7 +1862,7 @@
         <v>8.9939999999999998</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F5" s="6">
         <f>STDEV(B2:B51)</f>
@@ -1887,7 +1890,7 @@
         <v>9.077</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6" s="5">
         <v>4</v>
@@ -1903,7 +1906,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="13">
+    <row r="7" spans="1:12" ht="12.95">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -1911,7 +1914,7 @@
         <v>6.4130000000000003</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F7" s="6">
         <f>MIN(B2:B51)</f>
@@ -1931,7 +1934,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="13">
+    <row r="8" spans="1:12" ht="12.95">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -1939,7 +1942,7 @@
         <v>5.8769999999999998</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F8" s="6">
         <f>MAX(B2:B51)</f>
@@ -1959,7 +1962,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="13">
+    <row r="9" spans="1:12" ht="12.95">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1967,7 +1970,7 @@
         <v>2.5720000000000001</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F9" s="6">
         <f>F8-F7</f>
@@ -2008,7 +2011,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13">
+    <row r="11" spans="1:12" ht="12.95">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
@@ -2016,14 +2019,14 @@
         <v>6.8810000000000002</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I11" s="4">
         <f>SUM(I4:I10)</f>
         <v>50</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L11" s="4">
         <f>SUM(L4:L10)</f>
@@ -2365,7 +2368,7 @@
         <v>6.2560000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="13">
+    <row r="39" spans="1:12" ht="12.95">
       <c r="A39" s="2" t="s">
         <v>2</v>
       </c>
@@ -2373,13 +2376,13 @@
         <v>5.3490000000000002</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="12.95">
       <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
@@ -2387,29 +2390,29 @@
         <v>7.3</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F40" s="10">
         <f>COUNT(B52:B101)</f>
         <v>50</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="12.95">
       <c r="A41" s="2" t="s">
         <v>2</v>
       </c>
@@ -2417,7 +2420,7 @@
         <v>5.4450000000000003</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F41" s="10">
         <f>AVERAGE(B52:B101)</f>
@@ -2438,7 +2441,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="13">
+    <row r="42" spans="1:12" ht="12.95">
       <c r="A42" s="2" t="s">
         <v>2</v>
       </c>
@@ -2446,7 +2449,7 @@
         <v>4.97</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F42" s="10">
         <f>STDEV(B52:B101)</f>
@@ -2487,7 +2490,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="13">
+    <row r="44" spans="1:12" ht="12.95">
       <c r="A44" s="2" t="s">
         <v>2</v>
       </c>
@@ -2495,7 +2498,7 @@
         <v>7.5679999999999996</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F44" s="11">
         <f>MIN(B52:B101)</f>
@@ -2515,7 +2518,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="13">
+    <row r="45" spans="1:12" ht="12.95">
       <c r="A45" s="2" t="s">
         <v>2</v>
       </c>
@@ -2523,7 +2526,7 @@
         <v>5.8609999999999998</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F45" s="11">
         <f>MAX(B52:B101)</f>
@@ -2543,7 +2546,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="13">
+    <row r="46" spans="1:12" ht="12.95">
       <c r="A46" s="2" t="s">
         <v>2</v>
       </c>
@@ -2551,7 +2554,7 @@
         <v>4.157</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F46" s="11">
         <f>F45-F44</f>
@@ -2592,7 +2595,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="13">
+    <row r="48" spans="1:12" ht="12.95">
       <c r="A48" s="2" t="s">
         <v>2</v>
       </c>
@@ -2600,14 +2603,14 @@
         <v>4.4409999999999998</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I48" s="12">
         <f>SUM(I41:I47)</f>
         <v>50</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L48" s="12">
         <f>SUM(L41:L47)</f>
@@ -2640,7 +2643,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B52" s="3">
         <v>-1.087</v>
@@ -2648,7 +2651,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B53" s="3">
         <v>1.819</v>
@@ -2656,7 +2659,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B54" s="3">
         <v>7.3999999999999996E-2</v>
@@ -2664,7 +2667,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B55" s="3">
         <v>1.7549999999999999</v>
@@ -2672,7 +2675,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B56" s="3">
         <v>1.889</v>
@@ -2680,7 +2683,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B57" s="3">
         <v>3.089</v>
@@ -2688,7 +2691,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B58" s="3">
         <v>4.008</v>
@@ -2696,7 +2699,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B59" s="3">
         <v>4.5510000000000002</v>
@@ -2704,7 +2707,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B60" s="3">
         <v>1.3720000000000001</v>
@@ -2712,7 +2715,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B61" s="3">
         <v>3.4129999999999998</v>
@@ -2720,7 +2723,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B62" s="3">
         <v>-4.1479999999999997</v>
@@ -2728,7 +2731,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B63" s="3">
         <v>2.823</v>
@@ -2736,7 +2739,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B64" s="3">
         <v>2.8650000000000002</v>
@@ -2744,7 +2747,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B65" s="3">
         <v>4.3689999999999998</v>
@@ -2752,7 +2755,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B66" s="3">
         <v>6.3369999999999997</v>
@@ -2760,7 +2763,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B67" s="3">
         <v>6.3079999999999998</v>
@@ -2768,7 +2771,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B68" s="3">
         <v>3.4940000000000002</v>
@@ -2776,7 +2779,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B69" s="3">
         <v>10.539</v>
@@ -2784,7 +2787,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B70" s="3">
         <v>3.84</v>
@@ -2792,7 +2795,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B71" s="3">
         <v>5.1230000000000002</v>
@@ -2800,7 +2803,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B72" s="3">
         <v>5.4850000000000003</v>
@@ -2808,7 +2811,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B73" s="3">
         <v>-1.8939999999999999</v>
@@ -2816,7 +2819,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B74" s="3">
         <v>8.016</v>
@@ -2824,7 +2827,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B75" s="3">
         <v>2.31</v>
@@ -2832,7 +2835,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B76" s="3">
         <v>3.8820000000000001</v>
@@ -2840,7 +2843,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B77" s="3">
         <v>7.03</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B78" s="3">
         <v>7.7270000000000003</v>
@@ -2856,7 +2859,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B79" s="3">
         <v>0.105</v>
@@ -2864,7 +2867,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B80" s="3">
         <v>3.65</v>
@@ -2872,7 +2875,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B81" s="3">
         <v>4.5469999999999997</v>
@@ -2880,7 +2883,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B82" s="3">
         <v>4.9850000000000003</v>
@@ -2888,7 +2891,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B83" s="3">
         <v>5.1589999999999998</v>
@@ -2896,7 +2899,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B84" s="3">
         <v>4.76</v>
@@ -2904,7 +2907,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B85" s="3">
         <v>4.9340000000000002</v>
@@ -2912,7 +2915,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B86" s="3">
         <v>3.1059999999999999</v>
@@ -2920,7 +2923,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B87" s="3">
         <v>5.5979999999999999</v>
@@ -2928,7 +2931,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B88" s="3">
         <v>2.1619999999999999</v>
@@ -2936,7 +2939,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B89" s="3">
         <v>6.52</v>
@@ -2944,7 +2947,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B90" s="3">
         <v>7.0460000000000003</v>
@@ -2952,7 +2955,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B91" s="3">
         <v>1.7569999999999999</v>
@@ -2960,7 +2963,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B92" s="3">
         <v>1.8480000000000001</v>
@@ -2968,7 +2971,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B93" s="3">
         <v>1.0960000000000001</v>
@@ -2976,7 +2979,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B94" s="3">
         <v>2.145</v>
@@ -2984,7 +2987,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B95" s="3">
         <v>8.4350000000000005</v>
@@ -2992,7 +2995,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B96" s="3">
         <v>6.0990000000000002</v>
@@ -3000,7 +3003,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B97" s="3">
         <v>3.972</v>
@@ -3008,7 +3011,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B98" s="3">
         <v>2.4089999999999998</v>
@@ -3016,7 +3019,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B99" s="3">
         <v>0.56899999999999995</v>
@@ -3024,7 +3027,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B100" s="3">
         <v>7.0129999999999999</v>
@@ -3032,7 +3035,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B101" s="3">
         <v>2.5939999999999999</v>
